--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/10/seed4/result_data_KNN.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.468000000000001</v>
+        <v>-7.805999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -555,7 +555,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.834</v>
+        <v>-21.847</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -564,7 +564,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.796000000000001</v>
+        <v>-8.210000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.018</v>
+        <v>-22.095</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.07</v>
+        <v>-20.519</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.510000000000002</v>
+        <v>-7.992999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.354000000000001</v>
+        <v>-6.946000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -802,12 +802,12 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.95</v>
+        <v>-7.48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.124</v>
+        <v>-21.942</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.348000000000001</v>
+        <v>-7.730999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -928,7 +928,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.225999999999999</v>
+        <v>-7.877999999999998</v>
       </c>
     </row>
     <row r="36">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.834000000000001</v>
+        <v>-7.892999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.081999999999999</v>
+        <v>-7.953</v>
       </c>
     </row>
     <row r="53">
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.714</v>
+        <v>-7.486</v>
       </c>
     </row>
     <row r="67">
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.834000000000001</v>
+        <v>-7.616</v>
       </c>
     </row>
     <row r="68">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.572</v>
+        <v>-21.52</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.186</v>
+        <v>-20.043</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.666000000000001</v>
+        <v>-7.906000000000001</v>
       </c>
     </row>
     <row r="81">
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.9</v>
+        <v>-22.067</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.359999999999999</v>
+        <v>-8.253</v>
       </c>
     </row>
     <row r="100">
